--- a/data/input/absenteeism_data_36.xlsx
+++ b/data/input/absenteeism_data_36.xlsx
@@ -476,11 +476,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34566</v>
+        <v>7389</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luna Fernandes</t>
+          <t>Melissa Ferreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -494,56 +494,56 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45092</v>
       </c>
       <c r="G2" t="n">
-        <v>6848.45</v>
+        <v>11805.53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17227</v>
+        <v>12681</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alexia Carvalho</t>
+          <t>Elisa Dias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45089</v>
       </c>
       <c r="G3" t="n">
-        <v>6885.77</v>
+        <v>11397.96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>84874</v>
+        <v>90728</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gabriela Duarte</t>
+          <t>Lucca da Conceição</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,56 +552,56 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45094</v>
+        <v>45079</v>
       </c>
       <c r="G4" t="n">
-        <v>8466.790000000001</v>
+        <v>3013.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>54966</v>
+        <v>45356</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Marcela Rodrigues</t>
+          <t>João Guilherme Novaes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45078</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>5008.53</v>
+        <v>10705.08</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>35458</v>
+        <v>67553</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clarice Martins</t>
+          <t>Ana Beatriz Dias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,22 +610,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45085</v>
+        <v>45096</v>
       </c>
       <c r="G6" t="n">
-        <v>10084.74</v>
+        <v>2947.57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>24441</v>
+        <v>53800</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Srta. Maria Clara da Rocha</t>
+          <t>Sarah Moura</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,31 +635,31 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>8489.98</v>
+        <v>10284.94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>64841</v>
+        <v>84928</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Paulo Caldeira</t>
+          <t>Leonardo Fogaça</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,85 +668,85 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45082</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>3659.1</v>
+        <v>2616.27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11190</v>
+        <v>87614</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Milena Porto</t>
+          <t>Yasmin Barbosa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45081</v>
+        <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>9206.870000000001</v>
+        <v>11666.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99195</v>
+        <v>3194</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luana Fogaça</t>
+          <t>Arthur Cardoso</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45078</v>
+        <v>45087</v>
       </c>
       <c r="G10" t="n">
-        <v>6133.81</v>
+        <v>9360.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12358</v>
+        <v>50065</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sabrina Lopes</t>
+          <t>Ana Júlia Ferreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45081</v>
+        <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>10099.9</v>
+        <v>2846.67</v>
       </c>
     </row>
   </sheetData>
